--- a/public/assets/reportes/reporte_Seguridad_2023-05-11.xlsx
+++ b/public/assets/reportes/reporte_Seguridad_2023-05-11.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>Reporte de Seguridad</t>
   </si>
@@ -74,6 +74,9 @@
     <t>2023-05-11 03:26:30.000000</t>
   </si>
   <si>
+    <t>testeo1</t>
+  </si>
+  <si>
     <t>El usuario: administrador realizó cambio de clave al usuario: testeo1</t>
   </si>
   <si>
@@ -99,6 +102,21 @@
   </si>
   <si>
     <t>El usuario administrador asignó al perfil:TESTEOA : Eliminar en opción Perfiles</t>
+  </si>
+  <si>
+    <t>El usuario administrador modificó los datos del usuario: testeo1, Se cambió el perfil TESTEOA por el siguiente ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>2023-05-11 15:57:48.000000</t>
+  </si>
+  <si>
+    <t>Testeo3</t>
+  </si>
+  <si>
+    <t>El usuario: administrador realizó cambio de clave al usuario: Testeo3</t>
+  </si>
+  <si>
+    <t>2023-05-11 15:59:09.000000</t>
   </si>
 </sst>
 </file>
@@ -464,7 +482,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:T6"/>
@@ -561,9 +579,7 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
+      <c r="E7"/>
       <c r="F7" t="s">
         <v>11</v>
       </c>
@@ -584,9 +600,7 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
+      <c r="E8"/>
       <c r="F8" t="s">
         <v>13</v>
       </c>
@@ -630,9 +644,7 @@
       <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
+      <c r="E10"/>
       <c r="F10" t="s">
         <v>17</v>
       </c>
@@ -654,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -676,14 +688,12 @@
       <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
+      <c r="E12"/>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -699,14 +709,12 @@
       <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
+      <c r="E13"/>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -722,14 +730,12 @@
       <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
+      <c r="E14"/>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -745,14 +751,58 @@
       <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
+      <c r="E15"/>
       <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
         <v>27</v>
       </c>
-      <c r="G15" t="s">
-        <v>26</v>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16">
+        <v>185</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17">
+        <v>186</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
